--- a/src/test/resources/userdata.xlsx
+++ b/src/test/resources/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashfaq Parvez\IdeaProjects\RestAssuredTestNgFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3A83E-DC44-4160-ADE9-D6ED80F57CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CC0FD-9040-4763-BC92-AECB13496303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,19 +119,19 @@
     <t>egmail.com</t>
   </si>
   <si>
-    <t>uxertest21</t>
-  </si>
-  <si>
-    <t>uxertest22</t>
-  </si>
-  <si>
-    <t>uxertest23</t>
-  </si>
-  <si>
-    <t>uxertest24</t>
-  </si>
-  <si>
-    <t>uxertest25</t>
+    <t>uxertest61</t>
+  </si>
+  <si>
+    <t>uxertest62</t>
+  </si>
+  <si>
+    <t>uxertest63</t>
+  </si>
+  <si>
+    <t>uxertest64</t>
+  </si>
+  <si>
+    <t>uxertest65</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>9041</v>
+        <v>9081</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>9042</v>
+        <v>9082</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>9043</v>
+        <v>9083</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9044</v>
+        <v>9084</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9045</v>
+        <v>9085</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>

--- a/src/test/resources/userdata.xlsx
+++ b/src/test/resources/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashfaq Parvez\IdeaProjects\RestAssuredTestNgFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CC0FD-9040-4763-BC92-AECB13496303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A123AFB0-D53C-45B8-9AD6-9BD8F7D2244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,19 +119,19 @@
     <t>egmail.com</t>
   </si>
   <si>
-    <t>uxertest61</t>
-  </si>
-  <si>
-    <t>uxertest62</t>
-  </si>
-  <si>
-    <t>uxertest63</t>
-  </si>
-  <si>
-    <t>uxertest64</t>
-  </si>
-  <si>
-    <t>uxertest65</t>
+    <t>uxertest71</t>
+  </si>
+  <si>
+    <t>uxertest72</t>
+  </si>
+  <si>
+    <t>uxertest73</t>
+  </si>
+  <si>
+    <t>uxertest74</t>
+  </si>
+  <si>
+    <t>uxertest75</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>9081</v>
+        <v>9091</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>9082</v>
+        <v>9092</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>9083</v>
+        <v>9093</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>29</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>9084</v>
+        <v>9094</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>30</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>9085</v>
+        <v>9095</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
